--- a/Unity/Assets/Config/Excel/StartConfig/RouterTest/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/RouterTest/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="21216" windowHeight="12480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Router04</t>
+  </si>
+  <si>
+    <t>Router05</t>
   </si>
 </sst>
 </file>
@@ -110,12 +113,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,10 +140,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -150,22 +168,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,46 +247,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,58 +270,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -302,37 +299,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,145 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,15 +490,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,21 +508,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -544,7 +536,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,17 +571,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,137 +608,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,9 +751,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,13 +1107,13 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1313,13 +1307,13 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1411,19 +1405,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H10"/>
+  <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3796296296296" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1296296296296" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1497,10 +1491,10 @@
       <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="5">
@@ -1517,10 +1511,10 @@
       <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="5">
@@ -1537,10 +1531,10 @@
       <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="5">
@@ -1557,10 +1551,10 @@
       <c r="E9" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="5">
@@ -1577,14 +1571,34 @@
       <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="5">
+        <v>405</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5">
+        <v>30305</v>
       </c>
     </row>
   </sheetData>
